--- a/mycodes.xlsx
+++ b/mycodes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\windows\Documents\unb\uiot\iot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C563933E-5F2F-40CB-BD41-F55BCF9F3464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF312A-98B6-4C0F-A3AC-137587627864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{34799E44-36E6-431E-B4EE-4E50C6CF3A6C}"/>
+    <workbookView xWindow="-20610" yWindow="4650" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{34799E44-36E6-431E-B4EE-4E50C6CF3A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="bom" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>tv</t>
   </si>
@@ -229,6 +230,54 @@
   </si>
   <si>
     <t>isso é tudo no modo auto</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>RECEPTOR</t>
+  </si>
+  <si>
+    <t>https://www.huinfinito.com.br/sensores-luz-fotoeletricos/417-receptor-infra-vermelho-ir-codificado-3t.html</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/32847642995.html?spm=a2g0s.9042311.0.0.2742b90ak2BDbW</t>
+  </si>
+  <si>
+    <t>TRANSMISSOR</t>
+  </si>
+  <si>
+    <t>https://www.huinfinito.com.br/sensores-luz-fotoeletricos/950-foto-diodo-emissor-transparente-5mm.html</t>
+  </si>
+  <si>
+    <t>TRANSISTOR</t>
+  </si>
+  <si>
+    <t>https://www.baudaeletronica.com.br/transistor-2sc8050.html?gclid=CjwKCAjwoNuGBhA8EiwAFxomA7WaXH_dlkEn61GeJjX6expXvzzvYXTqnls5HcXa_JrI-uPS5GxMWRoC4BMQAvD_BwE</t>
+  </si>
+  <si>
+    <t>ate aqui</t>
+  </si>
+  <si>
+    <t>protoboard</t>
+  </si>
+  <si>
+    <t>https://www.huinfinito.com.br/protoboards/478-74-protoboard-mini-170-pontos.html#/21-cor-branco</t>
+  </si>
+  <si>
+    <t>jumper macho macho</t>
+  </si>
+  <si>
+    <t>https://www.huinfinito.com.br/acessorios/481-jumpers-macho-macho-65-pecas.html</t>
+  </si>
+  <si>
+    <t>carregador micro usb</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1342384929-carregador-v8-dc-tcv8-dotcell-celular-original-micro-biv-usb-_JM?matt_tool=50068466&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=12477691193&amp;matt_ad_group_id=121462994529&amp;matt_match_type=&amp;matt_network=g&amp;matt_device=c&amp;matt_creative=503171062546&amp;matt_keyword=&amp;matt_ad_position=&amp;matt_ad_type=pla&amp;matt_merchant_id=109957748&amp;matt_product_id=MLB1342384929&amp;matt_product_partition_id=1234176430234&amp;matt_target_id=pla-1234176430234&amp;gclid=CjwKCAjwoNuGBhA8EiwAFxomA9eVHxPfEqbeFM_raaAhX-O_lQ5TUYq49Ryv-Bu5pIXa0Yzamzl0_BoCENEQAvD_BwE</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -675,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC1F76-D255-4C76-8E76-3E121DC0FAD1}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="AP34" workbookViewId="0">
+      <selection activeCell="AS49" sqref="AS49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,4 +1012,115 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDABED5B-29A9-45D2-949B-AA22EE038BC4}">
+  <dimension ref="F8:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>1.24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <v>0.81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>0.24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G8:G11)</f>
+        <v>27.289999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <f>5.25*2</f>
+        <v>10.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>11.9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <f>SUM(G13:G15,G8:G11)</f>
+        <v>61.690000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>